--- a/nasure-prototyp/examples/Datenbank.xlsx
+++ b/nasure-prototyp/examples/Datenbank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\MT\1_UeSYS\oblig\04_Projekte\30_NASURE\02-hybrid_bis_nasure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBECE02E-FB7D-480D-808D-69CA6B0856E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB9F829-26CE-43CD-9E16-D1E7494ECFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{38202080-4FE7-444A-980A-34C58B26DC88}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Labordatenprodukt</t>
   </si>
@@ -202,6 +202,54 @@
   </si>
   <si>
     <t>Condition &gt; Code &gt; Coding &gt; Display</t>
+  </si>
+  <si>
+    <t>Falldatenprodukt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall Klasse </t>
+  </si>
+  <si>
+    <t>Case_class</t>
+  </si>
+  <si>
+    <t>Case_date</t>
+  </si>
+  <si>
+    <t>Earliest date available on the notifications</t>
+  </si>
+  <si>
+    <t>LB_status</t>
+  </si>
+  <si>
+    <t>KB_status</t>
+  </si>
+  <si>
+    <t>Earliest date on KB if available, otherwise: ausstehend, nicht notwendig, fehlend</t>
+  </si>
+  <si>
+    <t>KAD_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status defined by KAD: free text? </t>
+  </si>
+  <si>
+    <t>ID (of earliest test?), otherwise: ausstehend, nicht notwendig, fehlend</t>
+  </si>
+  <si>
+    <t>Pathogen</t>
+  </si>
+  <si>
+    <t>Case_ID</t>
+  </si>
+  <si>
+    <t>Fall_meldung_tabelle</t>
+  </si>
+  <si>
+    <t>ID from LB or KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall ID </t>
   </si>
 </sst>
 </file>
@@ -580,16 +628,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DB0D0F-21B9-491D-A5E9-35183E1FE357}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -686,6 +734,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
@@ -786,6 +839,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
@@ -885,6 +943,98 @@
       </c>
       <c r="D40" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
